--- a/data/others/quarterly_predictions_final_batch.xlsx
+++ b/data/others/quarterly_predictions_final_batch.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -538,7 +538,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -658,7 +658,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -778,7 +778,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -858,7 +858,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -978,7 +978,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D21" t="n">
